--- a/검수 데이터/송촌중/송촌중_명렬표.xlsx
+++ b/검수 데이터/송촌중/송촌중_명렬표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\group_classification\검수 데이터\송촌중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367980D6-8283-40E5-8F26-2565A9F509B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FB03D-7256-448C-AD12-896CDF5FCA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="278">
   <si>
     <t>소속초등학교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -869,6 +869,26 @@
   </si>
   <si>
     <t>1결시예정00</t>
+  </si>
+  <si>
+    <t>결시생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수학생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택과목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전출예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -943,7 +963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -966,26 +986,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,12 +1012,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,10 +1024,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1324,7 @@
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,11 +1345,26 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1376,11 +1389,16 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1405,11 +1423,16 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1434,11 +1457,16 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1463,11 +1491,16 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,11 +1525,16 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1521,11 +1559,16 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1550,11 +1593,16 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1579,11 +1627,16 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1608,11 +1661,16 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1637,11 +1695,16 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1666,11 +1729,16 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1695,11 +1763,16 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1724,11 +1797,16 @@
       <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1753,11 +1831,16 @@
       <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1782,11 +1865,16 @@
       <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1811,11 +1899,16 @@
       <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1840,11 +1933,16 @@
       <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1869,11 +1967,16 @@
       <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <v>9</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1898,11 +2001,16 @@
       <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1927,11 +2035,16 @@
       <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1956,11 +2069,16 @@
       <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1985,11 +2103,16 @@
       <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -2014,11 +2137,16 @@
       <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2043,11 +2171,16 @@
       <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -2072,11 +2205,16 @@
       <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -2101,11 +2239,16 @@
       <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2130,11 +2273,16 @@
       <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2159,11 +2307,16 @@
       <c r="H29" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -2188,11 +2341,16 @@
       <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -2217,11 +2375,16 @@
       <c r="H31" s="3">
         <v>3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2246,11 +2409,16 @@
       <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -2275,11 +2443,16 @@
       <c r="H33" s="3">
         <v>3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2304,11 +2477,16 @@
       <c r="H34" s="3">
         <v>3</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -2333,11 +2511,16 @@
       <c r="H35" s="3">
         <v>3</v>
       </c>
-      <c r="I35" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="3">
+        <v>9</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
@@ -2362,11 +2545,16 @@
       <c r="H36" s="3">
         <v>3</v>
       </c>
-      <c r="I36" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -2391,11 +2579,16 @@
       <c r="H37" s="3">
         <v>3</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
@@ -2420,11 +2613,16 @@
       <c r="H38" s="3">
         <v>3</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
@@ -2449,11 +2647,16 @@
       <c r="H39" s="3">
         <v>3</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -2478,11 +2681,16 @@
       <c r="H40" s="3">
         <v>3</v>
       </c>
-      <c r="I40" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -2507,11 +2715,16 @@
       <c r="H41" s="3">
         <v>3</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -2536,11 +2749,16 @@
       <c r="H42" s="3">
         <v>4</v>
       </c>
-      <c r="I42" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>51</v>
       </c>
@@ -2562,12 +2780,17 @@
       <c r="G43" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="7"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -2592,11 +2815,16 @@
       <c r="H44" s="3">
         <v>1</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -2621,11 +2849,16 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="3">
+        <v>9</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2650,11 +2883,16 @@
       <c r="H46" s="3">
         <v>1</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -2679,11 +2917,16 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2708,11 +2951,16 @@
       <c r="H48" s="3">
         <v>1</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2737,11 +2985,16 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2766,11 +3019,16 @@
       <c r="H50" s="3">
         <v>1</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2795,11 +3053,16 @@
       <c r="H51" s="3">
         <v>1</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2824,11 +3087,16 @@
       <c r="H52" s="3">
         <v>1</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2853,11 +3121,16 @@
       <c r="H53" s="3">
         <v>1</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2882,11 +3155,16 @@
       <c r="H54" s="3">
         <v>1</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2911,11 +3189,16 @@
       <c r="H55" s="3">
         <v>1</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -2940,11 +3223,16 @@
       <c r="H56" s="3">
         <v>2</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -2969,11 +3257,16 @@
       <c r="H57" s="3">
         <v>2</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
@@ -2998,11 +3291,16 @@
       <c r="H58" s="3">
         <v>2</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3027,11 +3325,16 @@
       <c r="H59" s="3">
         <v>2</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -3056,11 +3359,16 @@
       <c r="H60" s="3">
         <v>2</v>
       </c>
-      <c r="I60" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="3">
+        <v>17</v>
+      </c>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3085,11 +3393,16 @@
       <c r="H61" s="3">
         <v>2</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3114,11 +3427,16 @@
       <c r="H62" s="3">
         <v>2</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3143,11 +3461,16 @@
       <c r="H63" s="3">
         <v>2</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -3172,11 +3495,16 @@
       <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -3201,11 +3529,16 @@
       <c r="H65" s="3">
         <v>3</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
@@ -3230,11 +3563,16 @@
       <c r="H66" s="3">
         <v>3</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
@@ -3259,11 +3597,16 @@
       <c r="H67" s="3">
         <v>3</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
@@ -3288,11 +3631,16 @@
       <c r="H68" s="3">
         <v>3</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>61</v>
       </c>
@@ -3317,11 +3665,16 @@
       <c r="H69" s="3">
         <v>3</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>61</v>
       </c>
@@ -3346,11 +3699,16 @@
       <c r="H70" s="3">
         <v>3</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>61</v>
       </c>
@@ -3375,11 +3733,16 @@
       <c r="H71" s="3">
         <v>3</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>61</v>
       </c>
@@ -3404,11 +3767,16 @@
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>61</v>
       </c>
@@ -3433,11 +3801,16 @@
       <c r="H73" s="3">
         <v>3</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
@@ -3462,11 +3835,16 @@
       <c r="H74" s="3">
         <v>3</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>61</v>
       </c>
@@ -3491,11 +3869,16 @@
       <c r="H75" s="3">
         <v>3</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>61</v>
       </c>
@@ -3520,11 +3903,16 @@
       <c r="H76" s="3">
         <v>4</v>
       </c>
-      <c r="I76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>61</v>
       </c>
@@ -3549,11 +3937,16 @@
       <c r="H77" s="3">
         <v>4</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>97</v>
       </c>
@@ -3578,11 +3971,16 @@
       <c r="H78" s="3">
         <v>4</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>97</v>
       </c>
@@ -3607,11 +4005,16 @@
       <c r="H79" s="3">
         <v>4</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>97</v>
       </c>
@@ -3636,11 +4039,16 @@
       <c r="H80" s="3">
         <v>4</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>48</v>
       </c>
@@ -3662,12 +4070,17 @@
       <c r="G81" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I81" s="14"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="7"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>101</v>
       </c>
@@ -3692,11 +4105,16 @@
       <c r="H82" s="3">
         <v>4</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
@@ -3721,11 +4139,16 @@
       <c r="H83" s="3">
         <v>4</v>
       </c>
-      <c r="I83" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="3">
+        <v>9</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -3750,11 +4173,16 @@
       <c r="H84" s="3">
         <v>4</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -3779,11 +4207,16 @@
       <c r="H85" s="3">
         <v>4</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -3808,11 +4241,16 @@
       <c r="H86" s="3">
         <v>4</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -3837,11 +4275,16 @@
       <c r="H87" s="3">
         <v>4</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -3866,11 +4309,16 @@
       <c r="H88" s="3">
         <v>5</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -3895,11 +4343,16 @@
       <c r="H89" s="3">
         <v>5</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -3924,11 +4377,16 @@
       <c r="H90" s="3">
         <v>5</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -3953,11 +4411,16 @@
       <c r="H91" s="3">
         <v>5</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -3982,11 +4445,16 @@
       <c r="H92" s="3">
         <v>5</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>48</v>
       </c>
@@ -4011,11 +4479,16 @@
       <c r="H93" s="3">
         <v>5</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>48</v>
       </c>
@@ -4040,11 +4513,16 @@
       <c r="H94" s="3">
         <v>5</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>48</v>
       </c>
@@ -4069,11 +4547,16 @@
       <c r="H95" s="3">
         <v>5</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>48</v>
       </c>
@@ -4098,11 +4581,16 @@
       <c r="H96" s="3">
         <v>6</v>
       </c>
-      <c r="I96" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>48</v>
       </c>
@@ -4127,11 +4615,16 @@
       <c r="H97" s="3">
         <v>6</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>51</v>
       </c>
@@ -4156,11 +4649,16 @@
       <c r="H98" s="3">
         <v>6</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>51</v>
       </c>
@@ -4185,11 +4683,16 @@
       <c r="H99" s="3">
         <v>6</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>51</v>
       </c>
@@ -4214,11 +4717,16 @@
       <c r="H100" s="3">
         <v>6</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>51</v>
       </c>
@@ -4243,11 +4751,16 @@
       <c r="H101" s="3">
         <v>6</v>
       </c>
-      <c r="I101" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="3">
+        <v>9</v>
+      </c>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>51</v>
       </c>
@@ -4272,11 +4785,16 @@
       <c r="H102" s="3">
         <v>6</v>
       </c>
-      <c r="I102" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="3">
+        <v>10</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>51</v>
       </c>
@@ -4301,11 +4819,16 @@
       <c r="H103" s="3">
         <v>6</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>51</v>
       </c>
@@ -4330,11 +4853,16 @@
       <c r="H104" s="3">
         <v>6</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>51</v>
       </c>
@@ -4359,11 +4887,16 @@
       <c r="H105" s="3">
         <v>6</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
@@ -4388,11 +4921,16 @@
       <c r="H106" s="3">
         <v>6</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>51</v>
       </c>
@@ -4417,11 +4955,16 @@
       <c r="H107" s="3">
         <v>6</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>51</v>
       </c>
@@ -4446,11 +4989,16 @@
       <c r="H108" s="3">
         <v>6</v>
       </c>
-      <c r="I108" s="8">
+      <c r="I108" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>51</v>
       </c>
@@ -4475,11 +5023,16 @@
       <c r="H109" s="3">
         <v>6</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>51</v>
       </c>
@@ -4504,11 +5057,16 @@
       <c r="H110" s="3">
         <v>6</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I110" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>51</v>
       </c>
@@ -4533,11 +5091,16 @@
       <c r="H111" s="3">
         <v>7</v>
       </c>
-      <c r="I111" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>51</v>
       </c>
@@ -4562,11 +5125,16 @@
       <c r="H112" s="3">
         <v>7</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>51</v>
       </c>
@@ -4591,40 +5159,50 @@
       <c r="H113" s="3">
         <v>7</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="10" t="s">
+      <c r="D114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F114" s="11">
-        <v>1</v>
-      </c>
-      <c r="G114" s="10">
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G114" s="8">
         <v>10708</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="10">
         <v>7</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>61</v>
       </c>
@@ -4649,11 +5227,16 @@
       <c r="H115" s="3">
         <v>7</v>
       </c>
-      <c r="I115" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="3">
+        <v>9</v>
+      </c>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>61</v>
       </c>
@@ -4678,11 +5261,16 @@
       <c r="H116" s="3">
         <v>7</v>
       </c>
-      <c r="I116" s="8">
+      <c r="I116" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>61</v>
       </c>
@@ -4707,11 +5295,16 @@
       <c r="H117" s="3">
         <v>7</v>
       </c>
-      <c r="I117" s="8">
+      <c r="I117" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>61</v>
       </c>
@@ -4736,11 +5329,16 @@
       <c r="H118" s="3">
         <v>7</v>
       </c>
-      <c r="I118" s="8">
+      <c r="I118" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>61</v>
       </c>
@@ -4765,11 +5363,16 @@
       <c r="H119" s="3">
         <v>7</v>
       </c>
-      <c r="I119" s="8">
+      <c r="I119" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>61</v>
       </c>
@@ -4794,11 +5397,16 @@
       <c r="H120" s="3">
         <v>7</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>61</v>
       </c>
@@ -4823,11 +5431,16 @@
       <c r="H121" s="3">
         <v>7</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I121" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>61</v>
       </c>
@@ -4852,11 +5465,16 @@
       <c r="H122" s="3">
         <v>7</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I122" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>61</v>
       </c>
@@ -4881,11 +5499,16 @@
       <c r="H123" s="3">
         <v>8</v>
       </c>
-      <c r="I123" s="8">
+      <c r="I123" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>61</v>
       </c>
@@ -4910,11 +5533,16 @@
       <c r="H124" s="3">
         <v>8</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I124" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>61</v>
       </c>
@@ -4939,11 +5567,16 @@
       <c r="H125" s="3">
         <v>8</v>
       </c>
-      <c r="I125" s="8">
+      <c r="I125" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>61</v>
       </c>
@@ -4968,11 +5601,16 @@
       <c r="H126" s="3">
         <v>8</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I126" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>61</v>
       </c>
@@ -4997,11 +5635,16 @@
       <c r="H127" s="3">
         <v>8</v>
       </c>
-      <c r="I127" s="8">
+      <c r="I127" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>61</v>
       </c>
@@ -5026,11 +5669,16 @@
       <c r="H128" s="3">
         <v>8</v>
       </c>
-      <c r="I128" s="8">
+      <c r="I128" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>61</v>
       </c>
@@ -5055,40 +5703,50 @@
       <c r="H129" s="3">
         <v>8</v>
       </c>
-      <c r="I129" s="8">
+      <c r="I129" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="10" t="s">
+      <c r="D130" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F130" s="11">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10">
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G130" s="8">
         <v>10817</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="10">
         <v>8</v>
       </c>
-      <c r="I130" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="10">
+        <v>17</v>
+      </c>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>61</v>
       </c>
@@ -5113,11 +5771,16 @@
       <c r="H131" s="3">
         <v>8</v>
       </c>
-      <c r="I131" s="8">
+      <c r="I131" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>61</v>
       </c>
@@ -5142,11 +5805,16 @@
       <c r="H132" s="3">
         <v>9</v>
       </c>
-      <c r="I132" s="8">
+      <c r="I132" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>61</v>
       </c>
@@ -5171,11 +5839,16 @@
       <c r="H133" s="3">
         <v>9</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I133" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>61</v>
       </c>
@@ -5200,11 +5873,16 @@
       <c r="H134" s="3">
         <v>9</v>
       </c>
-      <c r="I134" s="8">
+      <c r="I134" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>61</v>
       </c>
@@ -5229,40 +5907,50 @@
       <c r="H135" s="3">
         <v>9</v>
       </c>
-      <c r="I135" s="8">
+      <c r="I135" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F136" s="11">
-        <v>1</v>
-      </c>
-      <c r="G136" s="10">
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+      <c r="G136" s="8">
         <v>10916</v>
       </c>
-      <c r="H136" s="12">
-        <v>9</v>
-      </c>
-      <c r="I136" s="13">
+      <c r="H136" s="10">
+        <v>9</v>
+      </c>
+      <c r="I136" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>61</v>
       </c>
@@ -5287,11 +5975,16 @@
       <c r="H137" s="3">
         <v>9</v>
       </c>
-      <c r="I137" s="8">
+      <c r="I137" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>61</v>
       </c>
@@ -5316,11 +6009,16 @@
       <c r="H138" s="3">
         <v>9</v>
       </c>
-      <c r="I138" s="8">
+      <c r="I138" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>61</v>
       </c>
@@ -5345,11 +6043,16 @@
       <c r="H139" s="3">
         <v>9</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>61</v>
       </c>
@@ -5374,11 +6077,16 @@
       <c r="H140" s="3">
         <v>9</v>
       </c>
-      <c r="I140" s="8">
+      <c r="I140" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>61</v>
       </c>
@@ -5403,11 +6111,16 @@
       <c r="H141" s="3">
         <v>10</v>
       </c>
-      <c r="I141" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="3">
+        <v>1</v>
+      </c>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>61</v>
       </c>
@@ -5432,11 +6145,16 @@
       <c r="H142" s="3">
         <v>10</v>
       </c>
-      <c r="I142" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="3">
+        <v>2</v>
+      </c>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>61</v>
       </c>
@@ -5461,11 +6179,16 @@
       <c r="H143" s="3">
         <v>10</v>
       </c>
-      <c r="I143" s="8">
+      <c r="I143" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -5490,11 +6213,16 @@
       <c r="H144" s="3">
         <v>10</v>
       </c>
-      <c r="I144" s="8">
+      <c r="I144" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>61</v>
       </c>
@@ -5519,40 +6247,50 @@
       <c r="H145" s="3">
         <v>10</v>
       </c>
-      <c r="I145" s="8">
+      <c r="I145" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="10" t="s">
+      <c r="D146" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F146" s="11">
-        <v>1</v>
-      </c>
-      <c r="G146" s="10">
+      <c r="F146" s="9">
+        <v>1</v>
+      </c>
+      <c r="G146" s="8">
         <v>11008</v>
       </c>
-      <c r="H146" s="12">
-        <v>10</v>
-      </c>
-      <c r="I146" s="13">
+      <c r="H146" s="10">
+        <v>10</v>
+      </c>
+      <c r="I146" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>61</v>
       </c>
@@ -5577,11 +6315,16 @@
       <c r="H147" s="3">
         <v>10</v>
       </c>
-      <c r="I147" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="3">
+        <v>9</v>
+      </c>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>61</v>
       </c>
@@ -5606,11 +6349,16 @@
       <c r="H148" s="3">
         <v>10</v>
       </c>
-      <c r="I148" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I148" s="3">
+        <v>10</v>
+      </c>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>251</v>
       </c>
@@ -5635,11 +6383,16 @@
       <c r="H149" s="3">
         <v>10</v>
       </c>
-      <c r="I149" s="8">
+      <c r="I149" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>255</v>
       </c>
@@ -5664,11 +6417,16 @@
       <c r="H150" s="3">
         <v>10</v>
       </c>
-      <c r="I150" s="8">
+      <c r="I150" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>267</v>
       </c>
@@ -5693,11 +6451,16 @@
       <c r="H151" s="3">
         <v>10</v>
       </c>
-      <c r="I151" s="8">
+      <c r="I151" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>101</v>
       </c>
@@ -5722,11 +6485,16 @@
       <c r="H152" s="3">
         <v>4</v>
       </c>
-      <c r="I152" s="8">
+      <c r="I152" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>107</v>
       </c>
@@ -5751,11 +6519,16 @@
       <c r="H153" s="3">
         <v>4</v>
       </c>
-      <c r="I153" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="3">
+        <v>10</v>
+      </c>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -5780,11 +6553,16 @@
       <c r="H154" s="3">
         <v>4</v>
       </c>
-      <c r="I154" s="8">
+      <c r="I154" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -5809,11 +6587,16 @@
       <c r="H155" s="3">
         <v>4</v>
       </c>
-      <c r="I155" s="8">
+      <c r="I155" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -5838,11 +6621,16 @@
       <c r="H156" s="3">
         <v>4</v>
       </c>
-      <c r="I156" s="8">
+      <c r="I156" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -5867,11 +6655,16 @@
       <c r="H157" s="3">
         <v>4</v>
       </c>
-      <c r="I157" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I157" s="3">
+        <v>17</v>
+      </c>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -5896,11 +6689,16 @@
       <c r="H158" s="3">
         <v>4</v>
       </c>
-      <c r="I158" s="8">
+      <c r="I158" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -5925,11 +6723,16 @@
       <c r="H159" s="3">
         <v>4</v>
       </c>
-      <c r="I159" s="8">
+      <c r="I159" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -5954,11 +6757,16 @@
       <c r="H160" s="3">
         <v>4</v>
       </c>
-      <c r="I160" s="8">
+      <c r="I160" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -5983,11 +6791,16 @@
       <c r="H161" s="3">
         <v>4</v>
       </c>
-      <c r="I161" s="8">
+      <c r="I161" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -6012,11 +6825,16 @@
       <c r="H162" s="3">
         <v>4</v>
       </c>
-      <c r="I162" s="8">
+      <c r="I162" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -6041,11 +6859,16 @@
       <c r="H163" s="3">
         <v>4</v>
       </c>
-      <c r="I163" s="8">
+      <c r="I163" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>
@@ -6070,11 +6893,16 @@
       <c r="H164" s="3">
         <v>5</v>
       </c>
-      <c r="I164" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="3">
+        <v>1</v>
+      </c>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
@@ -6099,11 +6927,16 @@
       <c r="H165" s="3">
         <v>5</v>
       </c>
-      <c r="I165" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="3">
+        <v>2</v>
+      </c>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>6</v>
       </c>
@@ -6128,11 +6961,16 @@
       <c r="H166" s="3">
         <v>5</v>
       </c>
-      <c r="I166" s="8">
+      <c r="I166" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>6</v>
       </c>
@@ -6157,11 +6995,16 @@
       <c r="H167" s="3">
         <v>5</v>
       </c>
-      <c r="I167" s="8">
+      <c r="I167" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>6</v>
       </c>
@@ -6186,11 +7029,16 @@
       <c r="H168" s="3">
         <v>5</v>
       </c>
-      <c r="I168" s="8">
+      <c r="I168" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>6</v>
       </c>
@@ -6215,11 +7063,16 @@
       <c r="H169" s="3">
         <v>5</v>
       </c>
-      <c r="I169" s="8">
+      <c r="I169" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>6</v>
       </c>
@@ -6244,11 +7097,16 @@
       <c r="H170" s="3">
         <v>5</v>
       </c>
-      <c r="I170" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="3">
+        <v>9</v>
+      </c>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>6</v>
       </c>
@@ -6273,11 +7131,16 @@
       <c r="H171" s="3">
         <v>5</v>
       </c>
-      <c r="I171" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="3">
+        <v>10</v>
+      </c>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
@@ -6302,11 +7165,16 @@
       <c r="H172" s="3">
         <v>5</v>
       </c>
-      <c r="I172" s="8">
+      <c r="I172" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>6</v>
       </c>
@@ -6331,11 +7199,16 @@
       <c r="H173" s="3">
         <v>5</v>
       </c>
-      <c r="I173" s="8">
+      <c r="I173" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>6</v>
       </c>
@@ -6360,11 +7233,16 @@
       <c r="H174" s="3">
         <v>5</v>
       </c>
-      <c r="I174" s="8">
+      <c r="I174" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>6</v>
       </c>
@@ -6389,11 +7267,16 @@
       <c r="H175" s="3">
         <v>5</v>
       </c>
-      <c r="I175" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="3">
+        <v>17</v>
+      </c>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
@@ -6418,11 +7301,16 @@
       <c r="H176" s="3">
         <v>5</v>
       </c>
-      <c r="I176" s="8">
+      <c r="I176" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>48</v>
       </c>
@@ -6447,11 +7335,16 @@
       <c r="H177" s="3">
         <v>5</v>
       </c>
-      <c r="I177" s="8">
+      <c r="I177" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>48</v>
       </c>
@@ -6476,11 +7369,16 @@
       <c r="H178" s="3">
         <v>5</v>
       </c>
-      <c r="I178" s="8">
+      <c r="I178" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>48</v>
       </c>
@@ -6505,11 +7403,16 @@
       <c r="H179" s="3">
         <v>5</v>
       </c>
-      <c r="I179" s="8">
+      <c r="I179" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>48</v>
       </c>
@@ -6534,11 +7437,16 @@
       <c r="H180" s="3">
         <v>6</v>
       </c>
-      <c r="I180" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="3">
+        <v>1</v>
+      </c>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>48</v>
       </c>
@@ -6563,11 +7471,16 @@
       <c r="H181" s="3">
         <v>6</v>
       </c>
-      <c r="I181" s="8">
+      <c r="I181" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>51</v>
       </c>
@@ -6592,11 +7505,16 @@
       <c r="H182" s="3">
         <v>6</v>
       </c>
-      <c r="I182" s="8">
+      <c r="I182" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>51</v>
       </c>
@@ -6621,11 +7539,16 @@
       <c r="H183" s="3">
         <v>6</v>
       </c>
-      <c r="I183" s="8">
+      <c r="I183" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>51</v>
       </c>
@@ -6650,11 +7573,16 @@
       <c r="H184" s="3">
         <v>6</v>
       </c>
-      <c r="I184" s="8">
+      <c r="I184" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>51</v>
       </c>
@@ -6679,11 +7607,16 @@
       <c r="H185" s="3">
         <v>6</v>
       </c>
-      <c r="I185" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="3">
+        <v>17</v>
+      </c>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>51</v>
       </c>
@@ -6708,11 +7641,16 @@
       <c r="H186" s="3">
         <v>6</v>
       </c>
-      <c r="I186" s="8">
+      <c r="I186" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>51</v>
       </c>
@@ -6737,11 +7675,16 @@
       <c r="H187" s="3">
         <v>6</v>
       </c>
-      <c r="I187" s="8">
+      <c r="I187" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>51</v>
       </c>
@@ -6766,11 +7709,16 @@
       <c r="H188" s="3">
         <v>7</v>
       </c>
-      <c r="I188" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="3">
+        <v>2</v>
+      </c>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>51</v>
       </c>
@@ -6795,11 +7743,16 @@
       <c r="H189" s="3">
         <v>7</v>
       </c>
-      <c r="I189" s="8">
+      <c r="I189" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>175</v>
       </c>
@@ -6824,11 +7777,16 @@
       <c r="H190" s="3">
         <v>7</v>
       </c>
-      <c r="I190" s="8">
+      <c r="I190" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>61</v>
       </c>
@@ -6853,11 +7811,16 @@
       <c r="H191" s="3">
         <v>7</v>
       </c>
-      <c r="I191" s="8">
+      <c r="I191" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>61</v>
       </c>
@@ -6882,11 +7845,16 @@
       <c r="H192" s="3">
         <v>7</v>
       </c>
-      <c r="I192" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="3">
+        <v>10</v>
+      </c>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>61</v>
       </c>
@@ -6911,11 +7879,16 @@
       <c r="H193" s="3">
         <v>7</v>
       </c>
-      <c r="I193" s="8">
+      <c r="I193" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>61</v>
       </c>
@@ -6940,11 +7913,16 @@
       <c r="H194" s="3">
         <v>7</v>
       </c>
-      <c r="I194" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I194" s="3">
+        <v>17</v>
+      </c>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>61</v>
       </c>
@@ -6969,11 +7947,16 @@
       <c r="H195" s="3">
         <v>7</v>
       </c>
-      <c r="I195" s="8">
+      <c r="I195" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>61</v>
       </c>
@@ -6998,11 +7981,16 @@
       <c r="H196" s="3">
         <v>7</v>
       </c>
-      <c r="I196" s="8">
+      <c r="I196" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>61</v>
       </c>
@@ -7027,11 +8015,16 @@
       <c r="H197" s="3">
         <v>7</v>
       </c>
-      <c r="I197" s="8">
+      <c r="I197" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>61</v>
       </c>
@@ -7056,11 +8049,16 @@
       <c r="H198" s="3">
         <v>7</v>
       </c>
-      <c r="I198" s="8">
+      <c r="I198" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>61</v>
       </c>
@@ -7085,11 +8083,16 @@
       <c r="H199" s="3">
         <v>8</v>
       </c>
-      <c r="I199" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I199" s="3">
+        <v>1</v>
+      </c>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>61</v>
       </c>
@@ -7114,11 +8117,16 @@
       <c r="H200" s="3">
         <v>8</v>
       </c>
-      <c r="I200" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I200" s="3">
+        <v>2</v>
+      </c>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>61</v>
       </c>
@@ -7143,11 +8151,16 @@
       <c r="H201" s="3">
         <v>8</v>
       </c>
-      <c r="I201" s="8">
+      <c r="I201" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>61</v>
       </c>
@@ -7172,11 +8185,16 @@
       <c r="H202" s="3">
         <v>8</v>
       </c>
-      <c r="I202" s="8">
+      <c r="I202" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>61</v>
       </c>
@@ -7201,11 +8219,16 @@
       <c r="H203" s="3">
         <v>8</v>
       </c>
-      <c r="I203" s="8">
+      <c r="I203" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>61</v>
       </c>
@@ -7230,11 +8253,16 @@
       <c r="H204" s="3">
         <v>8</v>
       </c>
-      <c r="I204" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I204" s="3">
+        <v>9</v>
+      </c>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>61</v>
       </c>
@@ -7259,11 +8287,16 @@
       <c r="H205" s="3">
         <v>8</v>
       </c>
-      <c r="I205" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I205" s="3">
+        <v>10</v>
+      </c>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>61</v>
       </c>
@@ -7288,11 +8321,16 @@
       <c r="H206" s="3">
         <v>8</v>
       </c>
-      <c r="I206" s="8">
+      <c r="I206" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>61</v>
       </c>
@@ -7317,11 +8355,16 @@
       <c r="H207" s="3">
         <v>8</v>
       </c>
-      <c r="I207" s="8">
+      <c r="I207" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>61</v>
       </c>
@@ -7346,11 +8389,16 @@
       <c r="H208" s="3">
         <v>8</v>
       </c>
-      <c r="I208" s="8">
+      <c r="I208" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>61</v>
       </c>
@@ -7375,11 +8423,16 @@
       <c r="H209" s="3">
         <v>8</v>
       </c>
-      <c r="I209" s="8">
+      <c r="I209" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>61</v>
       </c>
@@ -7404,11 +8457,16 @@
       <c r="H210" s="3">
         <v>8</v>
       </c>
-      <c r="I210" s="8">
+      <c r="I210" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>61</v>
       </c>
@@ -7433,11 +8491,16 @@
       <c r="H211" s="3">
         <v>8</v>
       </c>
-      <c r="I211" s="8">
+      <c r="I211" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>61</v>
       </c>
@@ -7462,11 +8525,16 @@
       <c r="H212" s="3">
         <v>8</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>61</v>
       </c>
@@ -7491,11 +8559,16 @@
       <c r="H213" s="3">
         <v>9</v>
       </c>
-      <c r="I213" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I213" s="3">
+        <v>1</v>
+      </c>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>61</v>
       </c>
@@ -7520,11 +8593,16 @@
       <c r="H214" s="3">
         <v>9</v>
       </c>
-      <c r="I214" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I214" s="3">
+        <v>2</v>
+      </c>
+      <c r="J214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>61</v>
       </c>
@@ -7549,11 +8627,16 @@
       <c r="H215" s="3">
         <v>9</v>
       </c>
-      <c r="I215" s="8">
+      <c r="I215" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>61</v>
       </c>
@@ -7578,11 +8661,16 @@
       <c r="H216" s="3">
         <v>9</v>
       </c>
-      <c r="I216" s="8">
+      <c r="I216" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>61</v>
       </c>
@@ -7607,11 +8695,16 @@
       <c r="H217" s="3">
         <v>9</v>
       </c>
-      <c r="I217" s="8">
+      <c r="I217" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="11"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>61</v>
       </c>
@@ -7636,11 +8729,16 @@
       <c r="H218" s="3">
         <v>9</v>
       </c>
-      <c r="I218" s="8">
+      <c r="I218" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>61</v>
       </c>
@@ -7665,11 +8763,16 @@
       <c r="H219" s="3">
         <v>9</v>
       </c>
-      <c r="I219" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I219" s="3">
+        <v>9</v>
+      </c>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>61</v>
       </c>
@@ -7694,11 +8797,16 @@
       <c r="H220" s="3">
         <v>9</v>
       </c>
-      <c r="I220" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I220" s="3">
+        <v>10</v>
+      </c>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>61</v>
       </c>
@@ -7723,11 +8831,16 @@
       <c r="H221" s="3">
         <v>9</v>
       </c>
-      <c r="I221" s="8">
+      <c r="I221" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>61</v>
       </c>
@@ -7752,11 +8865,16 @@
       <c r="H222" s="3">
         <v>9</v>
       </c>
-      <c r="I222" s="8">
+      <c r="I222" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>61</v>
       </c>
@@ -7781,11 +8899,16 @@
       <c r="H223" s="3">
         <v>9</v>
       </c>
-      <c r="I223" s="8">
+      <c r="I223" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>61</v>
       </c>
@@ -7810,11 +8933,16 @@
       <c r="H224" s="3">
         <v>9</v>
       </c>
-      <c r="I224" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I224" s="3">
+        <v>17</v>
+      </c>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>61</v>
       </c>
@@ -7839,11 +8967,16 @@
       <c r="H225" s="3">
         <v>9</v>
       </c>
-      <c r="I225" s="8">
+      <c r="I225" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>61</v>
       </c>
@@ -7868,11 +9001,16 @@
       <c r="H226" s="3">
         <v>9</v>
       </c>
-      <c r="I226" s="8">
+      <c r="I226" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>61</v>
       </c>
@@ -7897,11 +9035,16 @@
       <c r="H227" s="3">
         <v>10</v>
       </c>
-      <c r="I227" s="8">
+      <c r="I227" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>61</v>
       </c>
@@ -7926,11 +9069,16 @@
       <c r="H228" s="3">
         <v>10</v>
       </c>
-      <c r="I228" s="8">
+      <c r="I228" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>61</v>
       </c>
@@ -7955,11 +9103,16 @@
       <c r="H229" s="3">
         <v>10</v>
       </c>
-      <c r="I229" s="8">
+      <c r="I229" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>61</v>
       </c>
@@ -7984,11 +9137,16 @@
       <c r="H230" s="3">
         <v>10</v>
       </c>
-      <c r="I230" s="8">
+      <c r="I230" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>253</v>
       </c>
@@ -8013,11 +9171,16 @@
       <c r="H231" s="3">
         <v>10</v>
       </c>
-      <c r="I231" s="8">
+      <c r="I231" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>255</v>
       </c>
@@ -8042,11 +9205,16 @@
       <c r="H232" s="3">
         <v>10</v>
       </c>
-      <c r="I232" s="8">
+      <c r="I232" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>257</v>
       </c>
@@ -8071,11 +9239,16 @@
       <c r="H233" s="3">
         <v>10</v>
       </c>
-      <c r="I233" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I233" s="3">
+        <v>17</v>
+      </c>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>257</v>
       </c>
@@ -8100,11 +9273,16 @@
       <c r="H234" s="3">
         <v>10</v>
       </c>
-      <c r="I234" s="8">
+      <c r="I234" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>257</v>
       </c>
@@ -8129,11 +9307,16 @@
       <c r="H235" s="3">
         <v>10</v>
       </c>
-      <c r="I235" s="8">
+      <c r="I235" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>261</v>
       </c>
@@ -8158,11 +9341,16 @@
       <c r="H236" s="3">
         <v>10</v>
       </c>
-      <c r="I236" s="8">
+      <c r="I236" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>263</v>
       </c>
@@ -8187,11 +9375,16 @@
       <c r="H237" s="3">
         <v>10</v>
       </c>
-      <c r="I237" s="8">
+      <c r="I237" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>97</v>
       </c>
@@ -8219,8 +9412,13 @@
       <c r="I238" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>97</v>
       </c>
@@ -8248,6 +9446,11 @@
       <c r="I239" s="3">
         <v>23</v>
       </c>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
